--- a/data/trans_camb/P19C03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P19C03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,5</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,47; 1,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,79; -8,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,53; -6,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,41; 7,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,0; -1,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,46; -6,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 0,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,51; -8,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,15; -9,32</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,92%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,04; 8,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,53; -27,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,75; -20,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,1; 26,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,59; -4,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,49; -20,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,96; 2,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,92; -28,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,75; -29,88</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,99</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,28; -2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,99; 2,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,85; -5,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,0; -2,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,24; -2,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,07; -12,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; -5,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; -2,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,27; -11,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,04%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,2; -8,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,18; 7,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,02; -17,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,63; -8,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,52; -7,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,12; -38,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,17; -14,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,68; -6,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,06; -34,85</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 7,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,63; 0,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,41; -10,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,9; 2,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,68; -1,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,65; -11,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 2,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,33; -1,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,14; -12,18</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,13%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,22; 26,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,39; 2,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,25; -36,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,55; 7,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,44; -5,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,38; -38,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,24; 8,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,98; -4,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,72; -41,54</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,22; 1,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,17; 4,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,39; -5,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 2,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; 4,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,14; -6,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; 0,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 2,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,83; -8,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,05%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,17%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,91; 4,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,86; 13,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,45; -17,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,64; 8,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,86; 15,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,79; -22,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,42; 2,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,48; 7,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,24; -26,05</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,42</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 5,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,94; 0,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; -8,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,01; 3,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,46; -1,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,65; -9,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 3,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,23; -2,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,24; -9,81</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,39%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,41%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,98%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,01%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,26%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,72; 23,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,48; -0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,44; -30,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,2; 13,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,59; -5,92</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,9; -35,71</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,02; 12,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,84; -8,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,76; -37,34</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,26</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,68</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,01</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 0,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,29; -1,81</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,93; -10,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; -0,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,22; -3,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; -12,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; -0,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; -3,47</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,82; -12,18</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,81%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,44%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,76%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,0; 2,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,71; -5,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,47; -35,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,05; -2,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,94; -10,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,16; -40,41</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; -2,34</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,54; -11,17</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,22; -39,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,74</t>
+          <t>-9,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-21,59</t>
+          <t>-7,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-19,58</t>
+          <t>-13,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,88</t>
+          <t>-9,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,6</t>
+          <t>-17,88</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-17,6</t>
+          <t>-8,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-18,5</t>
+          <t>-15,79</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 1,76</t>
+          <t>-14,83; -2,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,79; -8,33</t>
+          <t>-13,51; -1,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,53; -6,54</t>
+          <t>-19,66; -7,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 7,76</t>
+          <t>-14,16; -3,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,0; -1,72</t>
+          <t>-14,85; -4,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,46; -6,57</t>
+          <t>-22,65; -13,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 0,9</t>
+          <t>-13,2; -5,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,51; -8,96</t>
+          <t>-12,55; -4,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-27,15; -9,32</t>
+          <t>-19,62; -12,18</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-31,29%</t>
+          <t>-24,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-57,56%</t>
+          <t>-19,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-52,22%</t>
+          <t>-36,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
+          <t>-24,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-39,26%</t>
+          <t>-27,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-49,78%</t>
+          <t>-49,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-24,03%</t>
+          <t>-24,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-48,45%</t>
+          <t>-23,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-50,92%</t>
+          <t>-43,4%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,04; 8,32</t>
+          <t>-36,71; -8,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,53; -27,23</t>
+          <t>-33,35; -4,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,75; -20,23</t>
+          <t>-49,16; -21,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,1; 26,47</t>
+          <t>-36,21; -9,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,59; -4,22</t>
+          <t>-39,42; -12,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,49; -20,53</t>
+          <t>-58,45; -39,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 2,71</t>
+          <t>-34,08; -14,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,92; -28,52</t>
+          <t>-32,57; -13,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-64,75; -29,88</t>
+          <t>-51,45; -35,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,72</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,0</t>
+          <t>-16,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,26</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,89</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,14</t>
+          <t>-15,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,99</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-15,67</t>
+          <t>-16,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,28; -2,86</t>
+          <t>-3,0; 7,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 2,61</t>
+          <t>-8,63; 0,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,85; -5,93</t>
+          <t>-24,91; -11,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,0; -2,67</t>
+          <t>-6,9; 2,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,24; -2,76</t>
+          <t>-10,68; -1,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,07; -12,74</t>
+          <t>-19,47; -11,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,2; -5,11</t>
+          <t>-3,77; 2,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -2,24</t>
+          <t>-8,33; -1,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,27; -11,78</t>
+          <t>-21,7; -13,21</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-23,58%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,51%</t>
+          <t>-12,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-35,15%</t>
+          <t>-56,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,81%</t>
+          <t>-8,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,79%</t>
+          <t>-19,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-50,59%</t>
+          <t>-46,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,7%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>-16,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-43,04%</t>
+          <t>-52,15%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,2; -8,41</t>
+          <t>-9,22; 26,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 7,96</t>
+          <t>-26,39; 2,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,02; -17,12</t>
+          <t>-78,97; -40,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,63; -8,28</t>
+          <t>-19,55; 7,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,52; -7,68</t>
+          <t>-30,44; -5,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,12; -38,86</t>
+          <t>-54,55; -37,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,17; -14,94</t>
+          <t>-11,24; 8,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,68; -6,41</t>
+          <t>-24,98; -4,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,06; -34,85</t>
+          <t>-67,56; -43,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,56</t>
+          <t>-11,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-15,58</t>
+          <t>-12,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-15,13</t>
+          <t>-12,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 7,02</t>
+          <t>-10,22; 1,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 0,64</t>
+          <t>-8,17; 4,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,41; -10,12</t>
+          <t>-17,05; -5,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 2,14</t>
+          <t>-8,19; 2,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -1,88</t>
+          <t>-6,39; 4,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,65; -11,9</t>
+          <t>-24,49; -2,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 2,71</t>
+          <t>-7,07; 0,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,33; -1,38</t>
+          <t>-5,21; 2,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,14; -12,18</t>
+          <t>-20,34; -6,3</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,61%</t>
+          <t>-6,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-48,59%</t>
+          <t>-31,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>-6,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,04%</t>
+          <t>-1,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-47,54%</t>
+          <t>-38,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-9,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-16,16%</t>
+          <t>-3,82%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-48,13%</t>
+          <t>-35,43%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 26,49</t>
+          <t>-26,91; 4,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 2,57</t>
+          <t>-21,86; 13,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,25; -36,49</t>
+          <t>-44,7; -16,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 7,32</t>
+          <t>-22,64; 8,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,44; -5,85</t>
+          <t>-17,86; 15,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,38; -38,68</t>
+          <t>-69,08; -9,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 8,99</t>
+          <t>-19,42; 2,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,98; -4,49</t>
+          <t>-14,48; 7,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,72; -41,54</t>
+          <t>-59,45; -19,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,59</t>
+          <t>-12,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,66</t>
+          <t>-13,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,27</t>
+          <t>-13,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 1,16</t>
+          <t>-3,46; 5,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 4,15</t>
+          <t>-8,94; 0,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,39; -5,76</t>
+          <t>-16,54; -7,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 2,62</t>
+          <t>-5,01; 3,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 4,71</t>
+          <t>-10,46; -1,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,14; -6,9</t>
+          <t>-17,99; -10,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 0,62</t>
+          <t>-2,72; 3,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,53</t>
+          <t>-8,23; -2,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,83; -8,27</t>
+          <t>-16,0; -10,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,31%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,05%</t>
+          <t>-16,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-32,67%</t>
+          <t>-43,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>-21,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-38,99%</t>
+          <t>-48,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-3,82%</t>
+          <t>-19,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-36,17%</t>
+          <t>-46,35%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 4,08</t>
+          <t>-11,72; 23,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 13,04</t>
+          <t>-29,48; -0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,45; -17,93</t>
+          <t>-54,34; -30,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 8,74</t>
+          <t>-16,2; 13,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 15,94</t>
+          <t>-34,59; -5,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,79; -22,81</t>
+          <t>-58,91; -38,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 2,06</t>
+          <t>-9,02; 12,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 7,8</t>
+          <t>-27,84; -8,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,24; -26,05</t>
+          <t>-54,56; -38,28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-12,42</t>
+          <t>-14,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-13,16</t>
+          <t>-14,62</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-12,81</t>
+          <t>-14,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 5,87</t>
+          <t>-4,62; 0,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 0,04</t>
+          <t>-7,29; -1,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-16,68; -8,03</t>
+          <t>-18,19; -11,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 3,59</t>
+          <t>-5,67; -0,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,46; -1,51</t>
+          <t>-8,22; -3,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,65; -9,43</t>
+          <t>-18,08; -11,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,33</t>
+          <t>-4,29; -0,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,23; -2,21</t>
+          <t>-7,09; -3,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-15,24; -9,81</t>
+          <t>-17,02; -12,06</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-16,39%</t>
+          <t>-13,81%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-44,41%</t>
+          <t>-43,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-21,26%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-45,98%</t>
+          <t>-45,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-19,01%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-45,26%</t>
+          <t>-44,78%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 23,17</t>
+          <t>-14,0; 2,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,48; -0,0</t>
+          <t>-21,71; -5,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-54,44; -30,42</t>
+          <t>-58,38; -36,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 13,65</t>
+          <t>-17,05; -2,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,59; -5,92</t>
+          <t>-24,94; -10,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-53,9; -35,71</t>
+          <t>-54,75; -36,5</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 12,58</t>
+          <t>-12,87; -2,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,84; -8,49</t>
+          <t>-21,54; -11,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,76; -37,34</t>
+          <t>-52,5; -38,45</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-4,42</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-13,26</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-3,1</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-5,77</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-14,68</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-5,12</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-14,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 0,66</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,29; -1,81</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-15,93; -10,79</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; -0,78</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-8,22; -3,13</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-17,3; -12,45</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-4,29; -0,76</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-7,09; -3,47</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-15,82; -12,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-6,11%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-13,81%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-41,44%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-9,67%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-17,99%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-45,79%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-7,96%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-15,98%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-43,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-14,0; 2,01</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-21,71; -5,84</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-47,47; -35,0</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-17,05; -2,31</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-24,94; -10,32</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-52,16; -40,41</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-12,87; -2,34</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-21,54; -11,17</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-48,22; -39,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P19C03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,83; -2,94</t>
+          <t>-15,06; -3,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -1,44</t>
+          <t>-12,81; -0,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,66; -7,73</t>
+          <t>-19,33; -7,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -3,19</t>
+          <t>-13,87; -3,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -4,07</t>
+          <t>-14,95; -4,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,65; -13,05</t>
+          <t>-22,73; -13,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,2; -5,27</t>
+          <t>-13,04; -4,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,55; -4,82</t>
+          <t>-12,29; -4,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,62; -12,18</t>
+          <t>-19,27; -11,93</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,71; -8,51</t>
+          <t>-36,86; -10,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,35; -4,17</t>
+          <t>-32,57; -1,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,16; -21,89</t>
+          <t>-48,76; -22,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,21; -9,94</t>
+          <t>-36,34; -9,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,42; -12,5</t>
+          <t>-38,9; -13,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,45; -39,99</t>
+          <t>-58,95; -40,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,08; -14,97</t>
+          <t>-33,64; -14,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,57; -13,9</t>
+          <t>-32,25; -12,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -35,45</t>
+          <t>-50,6; -34,51</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 7,02</t>
+          <t>-2,91; 6,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 0,64</t>
+          <t>-8,12; 1,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,91; -11,43</t>
+          <t>-24,85; -11,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 2,14</t>
+          <t>-7,03; 2,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -1,88</t>
+          <t>-10,54; -1,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,47; -11,6</t>
+          <t>-19,08; -11,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 2,71</t>
+          <t>-3,63; 3,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; -1,38</t>
+          <t>-8,3; -1,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,7; -13,21</t>
+          <t>-22,22; -13,02</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 26,49</t>
+          <t>-9,12; 24,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 2,57</t>
+          <t>-25,43; 3,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-78,97; -40,28</t>
+          <t>-78,12; -40,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 7,32</t>
+          <t>-19,96; 6,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,44; -5,85</t>
+          <t>-30,5; -6,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,55; -37,82</t>
+          <t>-54,27; -37,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 8,99</t>
+          <t>-11,09; 10,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,98; -4,49</t>
+          <t>-25,14; -6,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,56; -43,39</t>
+          <t>-69,73; -43,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 1,16</t>
+          <t>-10,46; 0,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 4,15</t>
+          <t>-8,44; 3,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -5,31</t>
+          <t>-16,64; -5,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 2,62</t>
+          <t>-7,14; 3,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 4,71</t>
+          <t>-5,65; 5,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,49; -2,84</t>
+          <t>-23,72; -2,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 0,62</t>
+          <t>-7,35; 0,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,53</t>
+          <t>-5,22; 2,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-20,34; -6,3</t>
+          <t>-20,21; -6,36</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 4,08</t>
+          <t>-26,92; 2,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 13,04</t>
+          <t>-21,74; 11,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,7; -16,54</t>
+          <t>-43,53; -16,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 8,74</t>
+          <t>-20,65; 10,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 15,94</t>
+          <t>-16,4; 16,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,08; -9,78</t>
+          <t>-69,91; -8,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 2,06</t>
+          <t>-20,28; 0,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 7,8</t>
+          <t>-14,72; 8,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,45; -19,41</t>
+          <t>-59,26; -19,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 5,87</t>
+          <t>-3,74; 5,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 0,04</t>
+          <t>-9,07; 0,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,54; -7,79</t>
+          <t>-16,09; -7,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 3,59</t>
+          <t>-4,6; 3,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,46; -1,51</t>
+          <t>-10,21; -1,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,99; -10,07</t>
+          <t>-17,92; -9,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,33</t>
+          <t>-2,58; 3,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,23; -2,21</t>
+          <t>-8,4; -2,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,0; -10,14</t>
+          <t>-15,86; -10,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 23,17</t>
+          <t>-12,12; 22,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,48; -0,0</t>
+          <t>-30,08; 0,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,34; -30,14</t>
+          <t>-53,6; -29,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 13,65</t>
+          <t>-14,83; 14,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,59; -5,92</t>
+          <t>-33,02; -6,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,91; -38,23</t>
+          <t>-59,65; -37,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 12,58</t>
+          <t>-8,78; 13,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,84; -8,49</t>
+          <t>-28,11; -8,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,56; -38,28</t>
+          <t>-53,6; -37,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,66</t>
+          <t>-4,73; 0,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,29; -1,81</t>
+          <t>-6,93; -1,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,19; -11,24</t>
+          <t>-18,39; -11,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,67; -0,78</t>
+          <t>-5,67; -0,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -3,13</t>
+          <t>-8,03; -3,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,08; -11,47</t>
+          <t>-18,2; -11,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -0,76</t>
+          <t>-4,39; -0,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -3,47</t>
+          <t>-7,08; -3,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -12,06</t>
+          <t>-16,97; -12,26</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 2,01</t>
+          <t>-14,02; 1,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -5,84</t>
+          <t>-21,12; -5,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,38; -36,65</t>
+          <t>-56,54; -36,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -2,31</t>
+          <t>-17,08; -2,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-24,94; -10,32</t>
+          <t>-24,13; -10,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,75; -36,5</t>
+          <t>-55,51; -36,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -2,34</t>
+          <t>-13,33; -2,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,54; -11,17</t>
+          <t>-21,32; -11,16</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-52,5; -38,45</t>
+          <t>-52,18; -38,94</t>
         </is>
       </c>
     </row>
